--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Cd248</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.2706537325334</v>
+        <v>34.349525</v>
       </c>
       <c r="H2">
-        <v>26.2706537325334</v>
+        <v>103.048575</v>
       </c>
       <c r="I2">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J2">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.398355865362341</v>
+        <v>0.5622980000000001</v>
       </c>
       <c r="N2">
-        <v>0.398355865362341</v>
+        <v>1.686894</v>
       </c>
       <c r="O2">
-        <v>0.006666830490361085</v>
+        <v>0.009268211472603169</v>
       </c>
       <c r="P2">
-        <v>0.006666830490361085</v>
+        <v>0.00926821147260317</v>
       </c>
       <c r="Q2">
-        <v>10.46506900125776</v>
+        <v>19.31466920845</v>
       </c>
       <c r="R2">
-        <v>10.46506900125776</v>
+        <v>173.83202287605</v>
       </c>
       <c r="S2">
-        <v>0.006023228465257145</v>
+        <v>0.008521054493316563</v>
       </c>
       <c r="T2">
-        <v>0.006023228465257145</v>
+        <v>0.008521054493316567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.2706537325334</v>
+        <v>34.349525</v>
       </c>
       <c r="H3">
-        <v>26.2706537325334</v>
+        <v>103.048575</v>
       </c>
       <c r="I3">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J3">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3647969234371</v>
+        <v>53.696799</v>
       </c>
       <c r="N3">
-        <v>53.3647969234371</v>
+        <v>161.090397</v>
       </c>
       <c r="O3">
-        <v>0.8931061048077926</v>
+        <v>0.885070351546451</v>
       </c>
       <c r="P3">
-        <v>0.8931061048077926</v>
+        <v>0.8850703515464511</v>
       </c>
       <c r="Q3">
-        <v>1401.92810148258</v>
+        <v>1844.459539670475</v>
       </c>
       <c r="R3">
-        <v>1401.92810148258</v>
+        <v>16600.13585703427</v>
       </c>
       <c r="S3">
-        <v>0.8068874888525736</v>
+        <v>0.813720394516193</v>
       </c>
       <c r="T3">
-        <v>0.8068874888525736</v>
+        <v>0.8137203945161933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +658,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.2706537325334</v>
+        <v>34.349525</v>
       </c>
       <c r="H4">
-        <v>26.2706537325334</v>
+        <v>103.048575</v>
       </c>
       <c r="I4">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J4">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.98875869871845</v>
+        <v>0.01852233333333333</v>
       </c>
       <c r="N4">
-        <v>5.98875869871845</v>
+        <v>0.055567</v>
       </c>
       <c r="O4">
-        <v>0.1002270647018463</v>
+        <v>0.0003052987958331348</v>
       </c>
       <c r="P4">
-        <v>0.1002270647018463</v>
+        <v>0.0003052987958331349</v>
       </c>
       <c r="Q4">
-        <v>157.3286060617297</v>
+        <v>0.6362333518916666</v>
       </c>
       <c r="R4">
-        <v>157.3286060617297</v>
+        <v>5.726100167025</v>
       </c>
       <c r="S4">
-        <v>0.09055135119666641</v>
+        <v>0.0002806871297367359</v>
       </c>
       <c r="T4">
-        <v>0.09055135119666641</v>
+        <v>0.0002806871297367361</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +720,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08891085749205</v>
+        <v>34.349525</v>
       </c>
       <c r="H5">
-        <v>1.08891085749205</v>
+        <v>103.048575</v>
       </c>
       <c r="I5">
-        <v>0.03744823656669586</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J5">
-        <v>0.03744823656669586</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.398355865362341</v>
+        <v>0.07686566666666667</v>
       </c>
       <c r="N5">
-        <v>0.398355865362341</v>
+        <v>0.230597</v>
       </c>
       <c r="O5">
-        <v>0.006666830490361085</v>
+        <v>0.001266956762516123</v>
       </c>
       <c r="P5">
-        <v>0.006666830490361085</v>
+        <v>0.001266956762516123</v>
       </c>
       <c r="Q5">
-        <v>0.4337740269386944</v>
+        <v>2.640299138808333</v>
       </c>
       <c r="R5">
-        <v>0.4337740269386944</v>
+        <v>23.762692249275</v>
       </c>
       <c r="S5">
-        <v>0.0002496610453531029</v>
+        <v>0.001164821027874496</v>
       </c>
       <c r="T5">
-        <v>0.0002496610453531029</v>
+        <v>0.001164821027874496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +782,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08891085749205</v>
+        <v>34.349525</v>
       </c>
       <c r="H6">
-        <v>1.08891085749205</v>
+        <v>103.048575</v>
       </c>
       <c r="I6">
-        <v>0.03744823656669586</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J6">
-        <v>0.03744823656669586</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>53.3647969234371</v>
+        <v>0.02414466666666666</v>
       </c>
       <c r="N6">
-        <v>53.3647969234371</v>
+        <v>0.072434</v>
       </c>
       <c r="O6">
-        <v>0.8931061048077926</v>
+        <v>0.0003979702517209367</v>
       </c>
       <c r="P6">
-        <v>0.8931061048077926</v>
+        <v>0.0003979702517209368</v>
       </c>
       <c r="Q6">
-        <v>58.10950677778901</v>
+        <v>0.8293578312833333</v>
       </c>
       <c r="R6">
-        <v>58.10950677778901</v>
+        <v>7.46422048155</v>
       </c>
       <c r="S6">
-        <v>0.03344524869200249</v>
+        <v>0.0003658878750940437</v>
       </c>
       <c r="T6">
-        <v>0.03344524869200249</v>
+        <v>0.0003658878750940439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +847,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.08891085749205</v>
+        <v>34.349525</v>
       </c>
       <c r="H7">
-        <v>1.08891085749205</v>
+        <v>103.048575</v>
       </c>
       <c r="I7">
-        <v>0.03744823656669586</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J7">
-        <v>0.03744823656669586</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.98875869871845</v>
+        <v>6.290896666666666</v>
       </c>
       <c r="N7">
-        <v>5.98875869871845</v>
+        <v>18.87269</v>
       </c>
       <c r="O7">
-        <v>0.1002270647018463</v>
+        <v>0.1036912111708756</v>
       </c>
       <c r="P7">
-        <v>0.1002270647018463</v>
+        <v>0.1036912111708756</v>
       </c>
       <c r="Q7">
-        <v>6.521224369934481</v>
+        <v>216.0893123240833</v>
       </c>
       <c r="R7">
-        <v>6.521224369934481</v>
+        <v>1944.80381091675</v>
       </c>
       <c r="S7">
-        <v>0.003753326829340273</v>
+        <v>0.0953321429357568</v>
       </c>
       <c r="T7">
-        <v>0.003753326829340273</v>
+        <v>0.09533214293575684</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.85503845690729</v>
+        <v>1.096366</v>
       </c>
       <c r="H8">
-        <v>0.85503845690729</v>
+        <v>3.289098</v>
       </c>
       <c r="I8">
-        <v>0.02940523752479945</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J8">
-        <v>0.02940523752479945</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.398355865362341</v>
+        <v>0.5622980000000001</v>
       </c>
       <c r="N8">
-        <v>0.398355865362341</v>
+        <v>1.686894</v>
       </c>
       <c r="O8">
-        <v>0.006666830490361085</v>
+        <v>0.009268211472603169</v>
       </c>
       <c r="P8">
-        <v>0.006666830490361085</v>
+        <v>0.00926821147260317</v>
       </c>
       <c r="Q8">
-        <v>0.3406095844193842</v>
+        <v>0.6164844090680001</v>
       </c>
       <c r="R8">
-        <v>0.3406095844193842</v>
+        <v>5.548359681612</v>
       </c>
       <c r="S8">
-        <v>0.0001960397341066429</v>
+        <v>0.000271974486710355</v>
       </c>
       <c r="T8">
-        <v>0.0001960397341066429</v>
+        <v>0.0002719744867103551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,57 +971,57 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.85503845690729</v>
+        <v>1.096366</v>
       </c>
       <c r="H9">
-        <v>0.85503845690729</v>
+        <v>3.289098</v>
       </c>
       <c r="I9">
-        <v>0.02940523752479945</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J9">
-        <v>0.02940523752479945</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.3647969234371</v>
+        <v>53.696799</v>
       </c>
       <c r="N9">
-        <v>53.3647969234371</v>
+        <v>161.090397</v>
       </c>
       <c r="O9">
-        <v>0.8931061048077926</v>
+        <v>0.885070351546451</v>
       </c>
       <c r="P9">
-        <v>0.8931061048077926</v>
+        <v>0.8850703515464511</v>
       </c>
       <c r="Q9">
-        <v>45.62895361458655</v>
+        <v>58.871344732434</v>
       </c>
       <c r="R9">
-        <v>45.62895361458655</v>
+        <v>529.842102591906</v>
       </c>
       <c r="S9">
-        <v>0.02626199714672157</v>
+        <v>0.02597227688167858</v>
       </c>
       <c r="T9">
-        <v>0.02626199714672157</v>
+        <v>0.02597227688167859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1024,60 +1030,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.85503845690729</v>
+        <v>1.096366</v>
       </c>
       <c r="H10">
-        <v>0.85503845690729</v>
+        <v>3.289098</v>
       </c>
       <c r="I10">
-        <v>0.02940523752479945</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J10">
-        <v>0.02940523752479945</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>5.98875869871845</v>
+        <v>0.01852233333333333</v>
       </c>
       <c r="N10">
-        <v>5.98875869871845</v>
+        <v>0.055567</v>
       </c>
       <c r="O10">
-        <v>0.1002270647018463</v>
+        <v>0.0003052987958331348</v>
       </c>
       <c r="P10">
-        <v>0.1002270647018463</v>
+        <v>0.0003052987958331349</v>
       </c>
       <c r="Q10">
-        <v>5.120618996542333</v>
+        <v>0.02030725650733333</v>
       </c>
       <c r="R10">
-        <v>5.120618996542333</v>
+        <v>0.182765308566</v>
       </c>
       <c r="S10">
-        <v>0.002947200643971234</v>
+        <v>8.95895432850807E-06</v>
       </c>
       <c r="T10">
-        <v>0.002947200643971234</v>
+        <v>8.958954328508075E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1092,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.863157545416751</v>
+        <v>1.096366</v>
       </c>
       <c r="H11">
-        <v>0.863157545416751</v>
+        <v>3.289098</v>
       </c>
       <c r="I11">
-        <v>0.02968445739400758</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J11">
-        <v>0.02968445739400758</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.398355865362341</v>
+        <v>0.07686566666666667</v>
       </c>
       <c r="N11">
-        <v>0.398355865362341</v>
+        <v>0.230597</v>
       </c>
       <c r="O11">
-        <v>0.006666830490361085</v>
+        <v>0.001266956762516123</v>
       </c>
       <c r="P11">
-        <v>0.006666830490361085</v>
+        <v>0.001266956762516123</v>
       </c>
       <c r="Q11">
-        <v>0.343843870948524</v>
+        <v>0.08427290350066666</v>
       </c>
       <c r="R11">
-        <v>0.343843870948524</v>
+        <v>0.758456131506</v>
       </c>
       <c r="S11">
-        <v>0.0001979012456441943</v>
+        <v>3.717868503412054E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001979012456441943</v>
+        <v>3.717868503412056E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1154,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.863157545416751</v>
+        <v>1.096366</v>
       </c>
       <c r="H12">
-        <v>0.863157545416751</v>
+        <v>3.289098</v>
       </c>
       <c r="I12">
-        <v>0.02968445739400758</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J12">
-        <v>0.02968445739400758</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>53.3647969234371</v>
+        <v>0.02414466666666666</v>
       </c>
       <c r="N12">
-        <v>53.3647969234371</v>
+        <v>0.072434</v>
       </c>
       <c r="O12">
-        <v>0.8931061048077926</v>
+        <v>0.0003979702517209367</v>
       </c>
       <c r="P12">
-        <v>0.8931061048077926</v>
+        <v>0.0003979702517209368</v>
       </c>
       <c r="Q12">
-        <v>46.06222712409735</v>
+        <v>0.02647139161466667</v>
       </c>
       <c r="R12">
-        <v>46.06222712409735</v>
+        <v>0.238242524532</v>
       </c>
       <c r="S12">
-        <v>0.02651137011649499</v>
+        <v>1.167838641335961E-05</v>
       </c>
       <c r="T12">
-        <v>0.02651137011649499</v>
+        <v>1.167838641335962E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1219,796 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.863157545416751</v>
+        <v>1.096366</v>
       </c>
       <c r="H13">
-        <v>0.863157545416751</v>
+        <v>3.289098</v>
       </c>
       <c r="I13">
-        <v>0.02968445739400758</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J13">
-        <v>0.02968445739400758</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.98875869871845</v>
+        <v>6.290896666666666</v>
       </c>
       <c r="N13">
-        <v>5.98875869871845</v>
+        <v>18.87269</v>
       </c>
       <c r="O13">
-        <v>0.1002270647018463</v>
+        <v>0.1036912111708756</v>
       </c>
       <c r="P13">
-        <v>0.1002270647018463</v>
+        <v>0.1036912111708756</v>
       </c>
       <c r="Q13">
-        <v>5.169242258479033</v>
+        <v>6.897125214846666</v>
       </c>
       <c r="R13">
-        <v>5.169242258479033</v>
+        <v>62.07412693361999</v>
       </c>
       <c r="S13">
-        <v>0.002975186031868398</v>
+        <v>0.003042805401876851</v>
       </c>
       <c r="T13">
-        <v>0.002975186031868398</v>
+        <v>0.003042805401876852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9739683333333332</v>
+      </c>
+      <c r="H14">
+        <v>2.921905</v>
+      </c>
+      <c r="I14">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="J14">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.5622980000000001</v>
+      </c>
+      <c r="N14">
+        <v>1.686894</v>
+      </c>
+      <c r="O14">
+        <v>0.009268211472603169</v>
+      </c>
+      <c r="P14">
+        <v>0.00926821147260317</v>
+      </c>
+      <c r="Q14">
+        <v>0.5476604458966666</v>
+      </c>
+      <c r="R14">
+        <v>4.92894401307</v>
+      </c>
+      <c r="S14">
+        <v>0.0002416114121839543</v>
+      </c>
+      <c r="T14">
+        <v>0.0002416114121839544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9739683333333332</v>
+      </c>
+      <c r="H15">
+        <v>2.921905</v>
+      </c>
+      <c r="I15">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="J15">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>53.696799</v>
+      </c>
+      <c r="N15">
+        <v>161.090397</v>
+      </c>
+      <c r="O15">
+        <v>0.885070351546451</v>
+      </c>
+      <c r="P15">
+        <v>0.8850703515464511</v>
+      </c>
+      <c r="Q15">
+        <v>52.29898182736499</v>
+      </c>
+      <c r="R15">
+        <v>470.6908364462849</v>
+      </c>
+      <c r="S15">
+        <v>0.02307274689959407</v>
+      </c>
+      <c r="T15">
+        <v>0.02307274689959407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9739683333333332</v>
+      </c>
+      <c r="H16">
+        <v>2.921905</v>
+      </c>
+      <c r="I16">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="J16">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01852233333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.055567</v>
+      </c>
+      <c r="O16">
+        <v>0.0003052987958331348</v>
+      </c>
+      <c r="P16">
+        <v>0.0003052987958331349</v>
+      </c>
+      <c r="Q16">
+        <v>0.01804016612611111</v>
+      </c>
+      <c r="R16">
+        <v>0.162361495135</v>
+      </c>
+      <c r="S16">
+        <v>7.958781844517666E-06</v>
+      </c>
+      <c r="T16">
+        <v>7.958781844517672E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9739683333333332</v>
+      </c>
+      <c r="H17">
+        <v>2.921905</v>
+      </c>
+      <c r="I17">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="J17">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.07686566666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.230597</v>
+      </c>
+      <c r="O17">
+        <v>0.001266956762516123</v>
+      </c>
+      <c r="P17">
+        <v>0.001266956762516123</v>
+      </c>
+      <c r="Q17">
+        <v>0.07486472525388888</v>
+      </c>
+      <c r="R17">
+        <v>0.6737825272849999</v>
+      </c>
+      <c r="S17">
+        <v>3.302807812191122E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.302807812191123E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9739683333333332</v>
+      </c>
+      <c r="H18">
+        <v>2.921905</v>
+      </c>
+      <c r="I18">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="J18">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.02414466666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.072434</v>
+      </c>
+      <c r="O18">
+        <v>0.0003979702517209367</v>
+      </c>
+      <c r="P18">
+        <v>0.0003979702517209368</v>
+      </c>
+      <c r="Q18">
+        <v>0.02351614075222222</v>
+      </c>
+      <c r="R18">
+        <v>0.21164526677</v>
+      </c>
+      <c r="S18">
+        <v>1.037461810293506E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.037461810293507E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9739683333333332</v>
+      </c>
+      <c r="H19">
+        <v>2.921905</v>
+      </c>
+      <c r="I19">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="J19">
+        <v>0.02606882815504994</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.290896666666666</v>
+      </c>
+      <c r="N19">
+        <v>18.87269</v>
+      </c>
+      <c r="O19">
+        <v>0.1036912111708756</v>
+      </c>
+      <c r="P19">
+        <v>0.1036912111708756</v>
+      </c>
+      <c r="Q19">
+        <v>6.127134141605554</v>
+      </c>
+      <c r="R19">
+        <v>55.14420727444999</v>
+      </c>
+      <c r="S19">
+        <v>0.002703108365202551</v>
+      </c>
+      <c r="T19">
+        <v>0.002703108365202552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9415566666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.82467</v>
+      </c>
+      <c r="I20">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="J20">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.5622980000000001</v>
+      </c>
+      <c r="N20">
+        <v>1.686894</v>
+      </c>
+      <c r="O20">
+        <v>0.009268211472603169</v>
+      </c>
+      <c r="P20">
+        <v>0.00926821147260317</v>
+      </c>
+      <c r="Q20">
+        <v>0.5294354305533334</v>
+      </c>
+      <c r="R20">
+        <v>4.764918874980001</v>
+      </c>
+      <c r="S20">
+        <v>0.0002335710803922956</v>
+      </c>
+      <c r="T20">
+        <v>0.0002335710803922956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9415566666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.82467</v>
+      </c>
+      <c r="I21">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="J21">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>53.696799</v>
+      </c>
+      <c r="N21">
+        <v>161.090397</v>
+      </c>
+      <c r="O21">
+        <v>0.885070351546451</v>
+      </c>
+      <c r="P21">
+        <v>0.8850703515464511</v>
+      </c>
+      <c r="Q21">
+        <v>50.55857907711</v>
+      </c>
+      <c r="R21">
+        <v>455.02721169399</v>
+      </c>
+      <c r="S21">
+        <v>0.0223049332489853</v>
+      </c>
+      <c r="T21">
+        <v>0.0223049332489853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9415566666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.82467</v>
+      </c>
+      <c r="I22">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="J22">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.01852233333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.055567</v>
+      </c>
+      <c r="O22">
+        <v>0.0003052987958331348</v>
+      </c>
+      <c r="P22">
+        <v>0.0003052987958331349</v>
+      </c>
+      <c r="Q22">
+        <v>0.01743982643222222</v>
+      </c>
+      <c r="R22">
+        <v>0.15695843789</v>
+      </c>
+      <c r="S22">
+        <v>7.693929923373184E-06</v>
+      </c>
+      <c r="T22">
+        <v>7.693929923373188E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9415566666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.82467</v>
+      </c>
+      <c r="I23">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="J23">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.07686566666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.230597</v>
+      </c>
+      <c r="O23">
+        <v>0.001266956762516123</v>
+      </c>
+      <c r="P23">
+        <v>0.001266956762516123</v>
+      </c>
+      <c r="Q23">
+        <v>0.07237338088777778</v>
+      </c>
+      <c r="R23">
+        <v>0.65136042799</v>
+      </c>
+      <c r="S23">
+        <v>3.192897148559552E-05</v>
+      </c>
+      <c r="T23">
+        <v>3.192897148559554E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9415566666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.82467</v>
+      </c>
+      <c r="I24">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="J24">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02414466666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.072434</v>
+      </c>
+      <c r="O24">
+        <v>0.0003979702517209367</v>
+      </c>
+      <c r="P24">
+        <v>0.0003979702517209368</v>
+      </c>
+      <c r="Q24">
+        <v>0.02273357186444444</v>
+      </c>
+      <c r="R24">
+        <v>0.20460214678</v>
+      </c>
+      <c r="S24">
+        <v>1.002937211059826E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.002937211059826E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9415566666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.82467</v>
+      </c>
+      <c r="I25">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="J25">
+        <v>0.02520131107093657</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.290896666666666</v>
+      </c>
+      <c r="N25">
+        <v>18.87269</v>
+      </c>
+      <c r="O25">
+        <v>0.1036912111708756</v>
+      </c>
+      <c r="P25">
+        <v>0.1036912111708756</v>
+      </c>
+      <c r="Q25">
+        <v>5.923235695811111</v>
+      </c>
+      <c r="R25">
+        <v>53.3091212623</v>
+      </c>
+      <c r="S25">
+        <v>0.002613154468039409</v>
+      </c>
+      <c r="T25">
+        <v>0.00261315446803941</v>
       </c>
     </row>
   </sheetData>
